--- a/inst/extdata/hospit_dict_tanzania.xlsx
+++ b/inst/extdata/hospit_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>old</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>instanceID</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +457,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,25 +742,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -766,7 +774,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -780,13 +788,13 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -794,7 +802,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -808,7 +816,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -822,7 +830,7 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -833,13 +841,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -847,13 +855,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -864,7 +872,7 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -878,7 +886,7 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -889,13 +897,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -903,13 +911,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -917,13 +925,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -931,27 +939,27 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -959,13 +967,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -973,13 +981,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -990,7 +998,7 @@
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1004,7 +1012,7 @@
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1018,7 +1026,7 @@
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1032,7 +1040,7 @@
       <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1043,13 +1051,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1057,13 +1065,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1071,13 +1079,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1085,13 +1093,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1099,13 +1107,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1113,13 +1121,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1127,13 +1135,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1141,13 +1149,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1155,13 +1163,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1169,13 +1177,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1183,13 +1191,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1197,13 +1205,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1211,13 +1219,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1225,13 +1233,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1239,13 +1247,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1253,13 +1261,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1267,13 +1275,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1281,13 +1289,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1295,13 +1303,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1309,13 +1317,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1326,14 +1334,28 @@
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="10">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
